--- a/inst/Data/IF/PI4KB.xlsx
+++ b/inst/Data/IF/PI4KB.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonepernice/Desktop/GIT/R_packages_project/ORCAv2.0.0/ORCA/inst/Data/IF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26C656A3-F2EF-9E42-B17A-0898E7D8379F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAEDB4A-AA51-F242-9564-78D55BA51E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15800" activeTab="1" xr2:uid="{D752ED1C-DB84-ED45-94EB-3A0F243563CF}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D752ED1C-DB84-ED45-94EB-3A0F243563CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>In</t>
   </si>
@@ -64,13 +64,49 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>siPPFIA2</t>
+  </si>
+  <si>
+    <t>siPPFIA3</t>
+  </si>
+  <si>
+    <t>siPPFIA4</t>
+  </si>
+  <si>
+    <t>siPPFIA5</t>
+  </si>
+  <si>
+    <t>siPPFIA6</t>
+  </si>
+  <si>
+    <t>siPPFIA7</t>
+  </si>
+  <si>
+    <t>siPPFIA8</t>
+  </si>
+  <si>
+    <t>siPPFIA9</t>
+  </si>
+  <si>
+    <t>siPPFIA10</t>
+  </si>
+  <si>
+    <t>ExpCond</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +119,12 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -252,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -305,6 +347,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,155 +691,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E650D30A-61C8-6045-B629-C03BA37B47FE}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
         <v>530.04399999999998</v>
       </c>
-      <c r="B1" s="3">
+      <c r="C2" s="3">
         <v>84.765000000000001</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>734.02700000000004</v>
+      </c>
+      <c r="C3" s="3">
+        <v>64.652000000000001</v>
+      </c>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>685.58100000000002</v>
+      </c>
+      <c r="C4" s="3">
+        <v>69.216999999999999</v>
+      </c>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>631.62199999999996</v>
+      </c>
+      <c r="C5" s="3">
+        <v>76.786000000000001</v>
+      </c>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>516.91800000000001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>94.852999999999994</v>
+      </c>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>612.26900000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>85.864999999999995</v>
+      </c>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>279.976</v>
+      </c>
+      <c r="C8" s="3">
+        <v>28.132000000000001</v>
+      </c>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>528.71400000000006</v>
+      </c>
+      <c r="C9" s="3">
+        <v>117.625</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>547</v>
+      </c>
+      <c r="C10" s="3">
+        <v>91.185000000000002</v>
+      </c>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>545.86199999999997</v>
+      </c>
+      <c r="C11" s="3">
+        <v>102.373</v>
+      </c>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
         <v>378.79500000000002</v>
       </c>
-      <c r="D1" s="2">
+      <c r="C12" s="2">
         <v>47.584000000000003</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>734.02700000000004</v>
-      </c>
-      <c r="B2" s="3">
-        <v>64.652000000000001</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
         <v>379.58</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C13" s="2">
         <v>41.231000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>685.58100000000002</v>
-      </c>
-      <c r="B3" s="3">
-        <v>69.216999999999999</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
         <v>367.26600000000002</v>
       </c>
-      <c r="D3" s="2">
+      <c r="C14" s="2">
         <v>38.299999999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>631.62199999999996</v>
-      </c>
-      <c r="B4" s="3">
-        <v>76.786000000000001</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
         <v>395.09300000000002</v>
       </c>
-      <c r="D4" s="2">
+      <c r="C15" s="2">
         <v>42.628999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>516.91800000000001</v>
-      </c>
-      <c r="B5" s="3">
-        <v>94.852999999999994</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
         <v>372.72199999999998</v>
       </c>
-      <c r="D5" s="2">
+      <c r="C16" s="2">
         <v>37.189</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>612.26900000000001</v>
-      </c>
-      <c r="B6" s="3">
-        <v>85.864999999999995</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
         <v>373.77300000000002</v>
       </c>
-      <c r="D6" s="2">
+      <c r="C17" s="2">
         <v>30.443000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>279.976</v>
-      </c>
-      <c r="B7" s="3">
-        <v>28.132000000000001</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
         <v>510.03399999999999</v>
       </c>
-      <c r="D7" s="2">
+      <c r="C18" s="2">
         <v>45.335000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>528.71400000000006</v>
-      </c>
-      <c r="B8" s="3">
-        <v>117.625</v>
-      </c>
-      <c r="C8" s="2">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
         <v>458.95800000000003</v>
       </c>
-      <c r="D8" s="2">
+      <c r="C19" s="2">
         <v>57.817999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>547</v>
-      </c>
-      <c r="B9" s="3">
-        <v>91.185000000000002</v>
-      </c>
-      <c r="C9" s="2">
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
         <v>420.46600000000001</v>
       </c>
-      <c r="D9" s="2">
+      <c r="C20" s="2">
         <v>37.654000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>545.86199999999997</v>
-      </c>
-      <c r="B10" s="3">
-        <v>102.373</v>
-      </c>
-      <c r="C10" s="2">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
         <v>377.92099999999999</v>
       </c>
-      <c r="D10" s="2">
+      <c r="C21" s="2">
         <v>40.603000000000002</v>
       </c>
     </row>
+    <row r="24" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -796,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1CFF0F-400F-944C-AB13-38544A3F6A83}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/inst/Data/IF/PI4KB.xlsx
+++ b/inst/Data/IF/PI4KB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonepernice/Desktop/GIT/R_packages_project/ORCAv2.0.0/ORCA/inst/Data/IF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAEDB4A-AA51-F242-9564-78D55BA51E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88BD906-C9FB-C147-9B66-A51A76D59902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D752ED1C-DB84-ED45-94EB-3A0F243563CF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
   <si>
     <t>In</t>
   </si>
@@ -70,33 +70,6 @@
   </si>
   <si>
     <t>OUT</t>
-  </si>
-  <si>
-    <t>siPPFIA2</t>
-  </si>
-  <si>
-    <t>siPPFIA3</t>
-  </si>
-  <si>
-    <t>siPPFIA4</t>
-  </si>
-  <si>
-    <t>siPPFIA5</t>
-  </si>
-  <si>
-    <t>siPPFIA6</t>
-  </si>
-  <si>
-    <t>siPPFIA7</t>
-  </si>
-  <si>
-    <t>siPPFIA8</t>
-  </si>
-  <si>
-    <t>siPPFIA9</t>
-  </si>
-  <si>
-    <t>siPPFIA10</t>
   </si>
   <si>
     <t>ExpCond</t>
@@ -694,14 +667,14 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -845,7 +818,7 @@
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2">
         <v>379.58</v>
@@ -857,7 +830,7 @@
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
         <v>367.26600000000002</v>
@@ -869,7 +842,7 @@
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2">
         <v>395.09300000000002</v>
@@ -881,7 +854,7 @@
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2">
         <v>372.72199999999998</v>
@@ -893,7 +866,7 @@
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2">
         <v>373.77300000000002</v>
@@ -905,7 +878,7 @@
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2">
         <v>510.03399999999999</v>
@@ -916,7 +889,7 @@
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2">
         <v>458.95800000000003</v>
@@ -927,7 +900,7 @@
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2">
         <v>420.46600000000001</v>
@@ -938,7 +911,7 @@
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2">
         <v>377.92099999999999</v>
@@ -959,7 +932,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
